--- a/Accounts-Schedules/تدريب طلبات 14-12-2025.xlsx
+++ b/Accounts-Schedules/تدريب طلبات 14-12-2025.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="212">
   <si>
     <t>Here is the list of trainees scheduled for training at Talabat on Monday, December 15th, from 10 AM to 7 PM.</t>
   </si>
@@ -450,6 +450,15 @@
     <t>Waleed Mustafa Mohamed</t>
   </si>
   <si>
+    <t>Shymaa alaa Eldeen</t>
+  </si>
+  <si>
+    <t>العبور _دائري</t>
+  </si>
+  <si>
+    <t>السلام</t>
+  </si>
+  <si>
     <t>Start</t>
   </si>
   <si>
@@ -568,6 +577,9 @@
   </si>
   <si>
     <t>آية أشرف</t>
+  </si>
+  <si>
+    <t>شيماء علاء الدين</t>
   </si>
   <si>
     <t>يوسف الخبيري</t>
@@ -873,7 +885,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,6 +895,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,7 +1439,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1439,16 +1463,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1457,89 +1481,89 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,24 +1588,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1591,9 +1597,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1606,12 +1609,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1647,6 +1644,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2181,10 +2187,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:F76"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -2198,1145 +2204,1162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
-    <row r="3" spans="1:6">
-      <c r="A3" s="26" t="s">
+    <row r="3" ht="15.25" spans="1:6">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="29" t="s">
+    <row r="4" ht="15.25" spans="1:6">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="21">
         <v>1017201687</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="29" t="s">
+      <c r="F4" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="1:6">
+      <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="29" t="s">
+      <c r="F5" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="15.25" spans="1:6">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="21">
         <v>1277498727</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="29" t="s">
+      <c r="F6" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="15.25" spans="1:6">
+      <c r="A7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="29" t="s">
+      <c r="F7" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25" spans="1:6">
+      <c r="A8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="29" t="s">
+      <c r="F8" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25" spans="1:6">
+      <c r="A9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="21">
         <v>1122363238</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="29" t="s">
+      <c r="F9" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="1:6">
+      <c r="A10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="21">
         <v>1283114456</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="29" t="s">
+      <c r="F10" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:6">
+      <c r="A11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="21">
         <v>1224558156</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="29" t="s">
+      <c r="F11" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="1:6">
+      <c r="A12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="29" t="s">
+      <c r="F12" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="1:6">
+      <c r="A13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="21">
         <v>1552461288</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="29" t="s">
+      <c r="F13" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="1:6">
+      <c r="A14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="21">
         <v>1206356070</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="29" t="s">
+      <c r="F14" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="1:6">
+      <c r="A15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="21">
         <v>1143175687</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="29" t="s">
+      <c r="F15" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="1:6">
+      <c r="A16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="21">
         <v>1008393750</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="29" t="s">
+      <c r="F16" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="1:6">
+      <c r="A17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="21">
         <v>1122834118</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="29" t="s">
+      <c r="F17" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="1:6">
+      <c r="A18" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="21">
         <v>1159286476</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="29" t="s">
+      <c r="F18" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:6">
+      <c r="A19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="21">
         <v>1151390803</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="29" t="s">
+      <c r="F19" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="1:6">
+      <c r="A20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="21">
         <v>1104840764</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="29" t="s">
+      <c r="F20" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="1:6">
+      <c r="A21" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="21">
         <v>1123157857</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="29" t="s">
+      <c r="F21" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="1:6">
+      <c r="A22" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="21">
         <v>1225586725</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="29" t="s">
+    <row r="23" ht="15.25" spans="1:6">
+      <c r="A23" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="21">
         <v>1026026750</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="29" t="s">
+      <c r="F23" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="1:6">
+      <c r="A24" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="21">
         <v>1040196093</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="29" t="s">
+      <c r="F24" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:6">
+      <c r="A25" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="21">
         <v>1157389205</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="29" t="s">
+      <c r="F25" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="1:6">
+      <c r="A26" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="29" t="s">
+      <c r="F26" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:6">
+      <c r="A27" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="21">
         <v>1063448614</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="29" t="s">
+      <c r="F27" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="1:6">
+      <c r="A28" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="21">
         <v>1080456188</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="29" t="s">
+      <c r="F28" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="1:6">
+      <c r="A29" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="21">
         <v>1505627413</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="29" t="s">
+      <c r="F29" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:6">
+      <c r="A30" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="29" t="s">
+      <c r="F30" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:6">
+      <c r="A31" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="21">
         <v>1004906883</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" ht="15.25" spans="1:6">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:6">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="21">
         <v>1140853380</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" ht="15.25" spans="1:6">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="29" t="s">
+      <c r="F34" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25" spans="1:6">
+      <c r="A35" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="21">
         <v>1142026904</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="29" t="s">
+      <c r="F35" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="1:6">
+      <c r="A36" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="21">
         <v>1026079544</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="29" t="s">
+      <c r="F36" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" ht="15.25" spans="1:6">
+      <c r="A37" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="21">
         <v>1029828096</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="29" t="s">
+      <c r="F37" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="1:6">
+      <c r="A38" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="21">
         <v>1121213223</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="29" t="s">
+      <c r="F38" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:6">
+      <c r="A39" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="21">
         <v>1557734323</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="29" t="s">
+      <c r="F39" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="1:6">
+      <c r="A40" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" ht="15.25" spans="1:6">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="22">
         <v>1113296805</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" ht="15.25" spans="1:6">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B42" s="22">
         <v>1274580847</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" ht="15.25" spans="1:6">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="34">
+      <c r="B43" s="25">
         <v>1285911945</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="33" t="s">
+      <c r="F43" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" ht="15.25" spans="1:6">
+      <c r="A44" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44" s="22">
         <v>1157757436</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="33" t="s">
+      <c r="F44" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" ht="15.25" spans="1:6">
+      <c r="A45" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B45" s="22">
         <v>1141894870</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="29" t="s">
+      <c r="F45" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" ht="15.25" spans="1:6">
+      <c r="A46" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="30">
+      <c r="B46" s="21">
         <v>1555371580</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="29" t="s">
+    <row r="47" ht="15.25" spans="1:6">
+      <c r="A47" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="29" t="s">
+      <c r="F47" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" ht="15.25" spans="1:6">
+      <c r="A48" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="21">
         <v>1559009369</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E48" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F48" s="31" t="s">
+      <c r="F48" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="29" t="s">
+    <row r="49" ht="15.25" spans="1:6">
+      <c r="A49" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="29" t="s">
+      <c r="F49" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:6">
+      <c r="A50" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="F50" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="29" t="s">
+      <c r="F50" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="1:6">
+      <c r="A51" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="29" t="s">
+      <c r="F51" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" ht="15.25" spans="1:6">
+      <c r="A52" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="30">
+      <c r="B52" s="21">
         <v>1097080067</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F52" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="29" t="s">
+      <c r="F52" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" ht="15.25" spans="1:6">
+      <c r="A53" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="30">
+      <c r="B53" s="21">
         <v>1121762092</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="29" t="s">
+      <c r="F53" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" ht="15.25" spans="1:6">
+      <c r="A54" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="30">
+      <c r="B54" s="21">
         <v>1156524915</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="29" t="s">
+      <c r="F54" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" ht="15.25" spans="1:6">
+      <c r="A55" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="21">
         <v>1155231399</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F55" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="29" t="s">
+      <c r="F55" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" ht="15.25" spans="1:6">
+      <c r="A56" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="30">
+      <c r="B56" s="21">
         <v>1288271110</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F56" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="29" t="s">
+      <c r="F56" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" ht="15.25" spans="1:6">
+      <c r="A57" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="21">
         <v>1275574497</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F57" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="33" t="s">
+      <c r="F57" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" ht="15.25" spans="1:6">
+      <c r="A58" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B58" s="22">
         <v>1553395477</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="F58" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="33" t="s">
+      <c r="F58" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" ht="15.25" spans="1:6">
+      <c r="A59" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="31">
+      <c r="B59" s="22">
         <v>1555337019</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F59" s="31" t="s">
+      <c r="F59" s="22" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="60" ht="15.25" spans="1:5">
+      <c r="A60" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="28">
+        <v>1159542855</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3348,10 +3371,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I58"/>
+  <dimension ref="B1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H58" sqref="B3:H58"/>
+      <selection activeCell="H59" sqref="B3:H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3371,16 +3394,16 @@
     <row r="1" ht="13.75"/>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
@@ -3391,7 +3414,7 @@
       <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +3429,18 @@
         <v>1113296805</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3428,22 +3451,22 @@
       <c r="C4" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>1559009369</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3458,18 +3481,18 @@
         <v>1555337019</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3480,22 +3503,22 @@
       <c r="C6" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>1225586725</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="21" t="s">
+      <c r="H6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3506,22 +3529,22 @@
       <c r="C7" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>1004906883</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>144</v>
+        <v>151</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3532,22 +3555,22 @@
       <c r="C8" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>1029828096</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I8" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3558,22 +3581,22 @@
       <c r="C9" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>1285911945</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3584,22 +3607,22 @@
       <c r="C10" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>1142026904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3610,22 +3633,22 @@
       <c r="C11" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>1156524915</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="14" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3636,22 +3659,22 @@
       <c r="C12" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>1224558156</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3662,22 +3685,22 @@
       <c r="C13" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>1121213223</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3692,18 +3715,18 @@
         <v>99</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="14" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3718,18 +3741,18 @@
         <v>1141894870</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="13" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3740,22 +3763,22 @@
       <c r="C16" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>1552461288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3770,18 +3793,18 @@
         <v>1022522135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="14" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3792,22 +3815,22 @@
       <c r="C18" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>1008393750</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3818,22 +3841,22 @@
       <c r="C19" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>1151390803</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3844,22 +3867,22 @@
       <c r="C20" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>1104840764</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3874,18 +3897,18 @@
         <v>66</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3900,18 +3923,18 @@
         <v>84</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G22" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3922,22 +3945,22 @@
       <c r="C23" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <v>1122363238</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3948,22 +3971,22 @@
       <c r="C24" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="7">
         <v>1122834118</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3974,22 +3997,22 @@
       <c r="C25" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <v>1157389205</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4000,22 +4023,22 @@
       <c r="C26" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <v>1505627413</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4026,22 +4049,22 @@
       <c r="C27" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="7">
         <v>1288271110</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G27" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="14" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4052,22 +4075,22 @@
       <c r="C28" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="7">
         <v>1277498727</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4078,22 +4101,22 @@
       <c r="C29" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="7">
         <v>1143175687</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4104,22 +4127,22 @@
       <c r="C30" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="7">
         <v>1026026750</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4134,18 +4157,18 @@
         <v>78</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G31" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4156,22 +4179,22 @@
       <c r="C32" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="7">
         <v>1206356070</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4182,22 +4205,22 @@
       <c r="C33" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="7">
         <v>1155231399</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H33" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4208,23 +4231,23 @@
       <c r="C34" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D34" s="9">
-        <v>1017201687</v>
+      <c r="D34" s="7">
+        <v>1159542855</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>6</v>
+        <v>182</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -4234,23 +4257,23 @@
       <c r="C35" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>12</v>
+      <c r="D35" s="7">
+        <v>1017201687</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G35" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>11</v>
+      <c r="H35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -4261,22 +4284,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G36" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="21" t="s">
-        <v>17</v>
+      <c r="I36" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -4287,22 +4310,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G37" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>19</v>
+      <c r="H37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -4313,22 +4336,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G38" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>31</v>
+      <c r="H38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -4338,23 +4361,23 @@
       <c r="C39" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D39" s="12">
-        <v>1063448614</v>
+      <c r="D39" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G39" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>67</v>
+      <c r="H39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -4364,23 +4387,23 @@
       <c r="C40" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>74</v>
+      <c r="D40" s="7">
+        <v>1063448614</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G40" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>73</v>
+      <c r="H40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -4390,23 +4413,23 @@
       <c r="C41" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D41" s="12">
-        <v>1026079544</v>
+      <c r="D41" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="G41" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" s="23" t="s">
-        <v>90</v>
+      <c r="H41" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -4416,23 +4439,23 @@
       <c r="C42" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>116</v>
+      <c r="D42" s="7">
+        <v>1026079544</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>115</v>
+      <c r="H42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -4443,22 +4466,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G43" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>117</v>
+      <c r="H43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -4468,23 +4491,23 @@
       <c r="C44" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D44" s="9">
-        <v>1121762092</v>
+      <c r="D44" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G44" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I44" s="21" t="s">
-        <v>125</v>
+      <c r="I44" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -4494,23 +4517,23 @@
       <c r="C45" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D45" s="9">
-        <v>1140853380</v>
+      <c r="D45" s="7">
+        <v>1121762092</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>80</v>
+        <v>193</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -4520,23 +4543,23 @@
       <c r="C46" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D46" s="6">
-        <v>1553395477</v>
+      <c r="D46" s="7">
+        <v>1140853380</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I46" s="20" t="s">
-        <v>136</v>
+      <c r="H46" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -4546,23 +4569,23 @@
       <c r="C47" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D47" s="9">
-        <v>1080456188</v>
+      <c r="D47" s="6">
+        <v>1553395477</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G47" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H47" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>69</v>
+      <c r="H47" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -4572,23 +4595,23 @@
       <c r="C48" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D48" s="9">
-        <v>1555371580</v>
+      <c r="D48" s="7">
+        <v>1080456188</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I48" s="21" t="s">
-        <v>110</v>
+        <v>196</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -4598,23 +4621,23 @@
       <c r="C49" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D49" s="9">
-        <v>1123157857</v>
+      <c r="D49" s="7">
+        <v>1555371580</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H49" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>51</v>
+      <c r="H49" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -4624,23 +4647,23 @@
       <c r="C50" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D50" s="9">
-        <v>1557734323</v>
+      <c r="D50" s="7">
+        <v>1123157857</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G50" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H50" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>95</v>
+      <c r="H50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -4650,23 +4673,23 @@
       <c r="C51" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D51" s="6">
-        <v>1274580847</v>
+      <c r="D51" s="7">
+        <v>1557734323</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G51" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I51" s="20" t="s">
-        <v>103</v>
+      <c r="I51" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -4676,23 +4699,23 @@
       <c r="C52" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>113</v>
+      <c r="D52" s="6">
+        <v>1274580847</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G52" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I52" s="21" t="s">
-        <v>112</v>
+      <c r="I52" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -4702,23 +4725,23 @@
       <c r="C53" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D53" s="9">
-        <v>1097080067</v>
+      <c r="D53" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G53" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H53" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>123</v>
+      <c r="H53" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -4728,23 +4751,23 @@
       <c r="C54" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D54" s="9">
-        <v>1275574497</v>
+      <c r="D54" s="7">
+        <v>1097080067</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G54" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H54" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="I54" s="21" t="s">
-        <v>134</v>
+      <c r="H54" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -4754,23 +4777,23 @@
       <c r="C55" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D55" s="9">
-        <v>1040196093</v>
+      <c r="D55" s="7">
+        <v>1275574497</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>60</v>
+        <v>204</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -4780,23 +4803,23 @@
       <c r="C56" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D56" s="6">
-        <v>1157757436</v>
+      <c r="D56" s="7">
+        <v>1040196093</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="H56" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I56" s="20" t="s">
-        <v>105</v>
+      <c r="I56" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -4806,54 +4829,80 @@
       <c r="C57" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="6">
+        <v>1157757436</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" ht="13.75" spans="2:9">
+      <c r="B58" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C58" s="9">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D58" s="10">
         <v>1283114456</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H57" s="8" t="s">
+      <c r="E58" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I57" s="21" t="s">
+      <c r="I58" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" ht="13.75" spans="2:9">
-      <c r="B58" s="14">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C58" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D58" s="16">
+    <row r="59" ht="13.75" spans="2:9">
+      <c r="B59" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C59" s="9">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D59" s="10">
         <v>1159286476</v>
       </c>
-      <c r="E58" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="H58" s="18" t="s">
+      <c r="E59" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H59" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I58" s="24" t="s">
+      <c r="I59" s="15" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I58" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B3:I58">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I59" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="B3:I59">
       <sortCondition ref="G2"/>
     </sortState>
     <extLst/>

--- a/Accounts-Schedules/تدريب طلبات 14-12-2025.xlsx
+++ b/Accounts-Schedules/تدريب طلبات 14-12-2025.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="215">
   <si>
     <t>Here is the list of trainees scheduled for training at Talabat on Monday, December 15th, from 10 AM to 7 PM.</t>
   </si>
@@ -459,6 +459,9 @@
     <t>السلام</t>
   </si>
   <si>
+    <t>Loay Montasr</t>
+  </si>
+  <si>
     <t>Start</t>
   </si>
   <si>
@@ -487,6 +490,12 @@
   </si>
   <si>
     <t>رؤى عمرو حسن</t>
+  </si>
+  <si>
+    <t>لؤي منتصر</t>
+  </si>
+  <si>
+    <t>؟</t>
   </si>
   <si>
     <t>احمد عتمان</t>
@@ -1563,7 +1572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1594,12 +1603,12 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1609,6 +1618,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1644,6 +1656,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -2187,10 +2208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:D60"/>
+      <selection activeCell="A61" sqref="A61:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -2204,1162 +2225,1179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:6">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:6">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="22">
         <v>1017201687</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:6">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:6">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="22">
         <v>1277498727</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:6">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:6">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:6">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="22">
         <v>1122363238</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:6">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <v>1283114456</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:6">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="22">
         <v>1224558156</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:6">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:6">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="22">
         <v>1552461288</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:6">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="22">
         <v>1206356070</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:6">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="22">
         <v>1143175687</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:6">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="22">
         <v>1008393750</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:6">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="22">
         <v>1122834118</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:6">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="22">
         <v>1159286476</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:6">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="22">
         <v>1151390803</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:6">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="22">
         <v>1104840764</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:6">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="22">
         <v>1123157857</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:6">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="22">
         <v>1225586725</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:6">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="22">
         <v>1026026750</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="1:6">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="22">
         <v>1040196093</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:6">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="22">
         <v>1157389205</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:6">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:6">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="22">
         <v>1063448614</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:6">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="22">
         <v>1080456188</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" ht="15.25" spans="1:6">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="22">
         <v>1505627413</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:6">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" ht="15.25" spans="1:6">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="22">
         <v>1004906883</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" ht="15.25" spans="1:6">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:6">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="22">
         <v>1140853380</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" ht="15.25" spans="1:6">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" ht="15.25" spans="1:6">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="22">
         <v>1142026904</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" ht="15.25" spans="1:6">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="22">
         <v>1026079544</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" ht="15.25" spans="1:6">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="22">
         <v>1029828096</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="1:6">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="22">
         <v>1121213223</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="1:6">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="22">
         <v>1557734323</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" ht="15.25" spans="1:6">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" ht="15.25" spans="1:6">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="23">
         <v>1113296805</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" ht="15.25" spans="1:6">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="23">
         <v>1274580847</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" ht="15.25" spans="1:6">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="26">
         <v>1285911945</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" ht="15.25" spans="1:6">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="23">
         <v>1157757436</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" ht="15.25" spans="1:6">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="23">
         <v>1141894870</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" ht="15.25" spans="1:6">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="22">
         <v>1555371580</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" ht="15.25" spans="1:6">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48" ht="15.25" spans="1:6">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B48" s="22">
         <v>1559009369</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" ht="15.25" spans="1:6">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" ht="15.25" spans="1:6">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" ht="15.25" spans="1:6">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" ht="15.25" spans="1:6">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B52" s="22">
         <v>1097080067</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" ht="15.25" spans="1:6">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="22">
         <v>1121762092</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" ht="15.25" spans="1:6">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B54" s="22">
         <v>1156524915</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F54" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" ht="15.25" spans="1:6">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55" s="22">
         <v>1155231399</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" ht="15.25" spans="1:6">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="22">
         <v>1288271110</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57" ht="15.25" spans="1:6">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="22">
         <v>1275574497</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F57" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" ht="15.25" spans="1:6">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="22">
+      <c r="B58" s="23">
         <v>1553395477</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="59" ht="15.25" spans="1:6">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="22">
+      <c r="B59" s="23">
         <v>1555337019</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" ht="15.25" spans="1:5">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="28">
+      <c r="B60" s="29">
         <v>1159542855</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="E60" s="29" t="s">
-        <v>10</v>
+      <c r="E60" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" ht="15.25" spans="1:5">
+      <c r="A61" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="32">
+        <v>1068804541</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3371,10 +3409,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I59"/>
+  <dimension ref="B1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H59" sqref="B3:H59"/>
+      <selection activeCell="H60" sqref="B3:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3394,16 +3432,16 @@
     <row r="1" ht="13.75"/>
     <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
@@ -3429,16 +3467,16 @@
         <v>1113296805</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>101</v>
@@ -3455,16 +3493,16 @@
         <v>1559009369</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>114</v>
@@ -3481,16 +3519,16 @@
         <v>1555337019</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>138</v>
@@ -3507,16 +3545,16 @@
         <v>1225586725</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>54</v>
@@ -3533,16 +3571,16 @@
         <v>1004906883</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>76</v>
@@ -3556,22 +3594,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D8" s="7">
-        <v>1029828096</v>
+        <v>1068804541</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>153</v>
+      <c r="G8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -3581,23 +3619,23 @@
       <c r="C9" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D9" s="6">
-        <v>1285911945</v>
+      <c r="D9" s="7">
+        <v>1029828096</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>104</v>
+        <v>156</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -3607,23 +3645,23 @@
       <c r="C10" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D10" s="7">
-        <v>1142026904</v>
+      <c r="D10" s="6">
+        <v>1285911945</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>87</v>
+        <v>146</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -3634,22 +3672,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D11" s="7">
-        <v>1156524915</v>
+        <v>1142026904</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>88</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -3660,22 +3698,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D12" s="7">
-        <v>1224558156</v>
+        <v>1156524915</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -3686,22 +3724,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D13" s="7">
-        <v>1121213223</v>
+        <v>1224558156</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -3711,23 +3749,23 @@
       <c r="C14" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>99</v>
+      <c r="D14" s="7">
+        <v>1121213223</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -3737,23 +3775,23 @@
       <c r="C15" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D15" s="6">
-        <v>1141894870</v>
+      <c r="D15" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>160</v>
+        <v>146</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -3763,23 +3801,23 @@
       <c r="C16" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D16" s="7">
-        <v>1552461288</v>
+      <c r="D16" s="6">
+        <v>1141894870</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>34</v>
+        <v>109</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -3790,22 +3828,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D17" s="7">
-        <v>1022522135</v>
+        <v>1552461288</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -3816,22 +3854,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D18" s="7">
-        <v>1008393750</v>
+        <v>1022522135</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -3842,22 +3880,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D19" s="7">
-        <v>1151390803</v>
+        <v>1008393750</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -3868,13 +3906,13 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D20" s="7">
-        <v>1104840764</v>
+        <v>1151390803</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>42</v>
@@ -3883,7 +3921,7 @@
         <v>49</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -3893,23 +3931,23 @@
       <c r="C21" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>66</v>
+      <c r="D21" s="7">
+        <v>1104840764</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -3920,22 +3958,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -3945,23 +3983,23 @@
       <c r="C23" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D23" s="7">
-        <v>1122363238</v>
+      <c r="D23" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -3972,13 +4010,13 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D24" s="7">
-        <v>1122834118</v>
+        <v>1122363238</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>23</v>
@@ -3987,7 +4025,7 @@
         <v>24</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -3998,22 +4036,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D25" s="7">
-        <v>1157389205</v>
+        <v>1122834118</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -4024,22 +4062,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D26" s="7">
-        <v>1505627413</v>
+        <v>1157389205</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -4050,22 +4088,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D27" s="7">
-        <v>1288271110</v>
+        <v>1505627413</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -4076,22 +4114,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D28" s="7">
-        <v>1277498727</v>
+        <v>1288271110</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -4102,22 +4140,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D29" s="7">
-        <v>1143175687</v>
+        <v>1277498727</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -4128,22 +4166,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D30" s="7">
-        <v>1026026750</v>
+        <v>1143175687</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -4153,23 +4191,23 @@
       <c r="C31" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>78</v>
+      <c r="D31" s="7">
+        <v>1026026750</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -4179,23 +4217,23 @@
       <c r="C32" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D32" s="7">
-        <v>1206356070</v>
+      <c r="D32" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -4206,22 +4244,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D33" s="7">
-        <v>1155231399</v>
+        <v>1206356070</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -4232,22 +4270,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D34" s="7">
-        <v>1159542855</v>
+        <v>1155231399</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -4258,22 +4296,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D35" s="7">
-        <v>1017201687</v>
+        <v>1159542855</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="H35" s="6" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -4283,23 +4321,23 @@
       <c r="C36" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>12</v>
+      <c r="D36" s="7">
+        <v>1017201687</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -4310,13 +4348,13 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>8</v>
@@ -4325,7 +4363,7 @@
         <v>13</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -4336,22 +4374,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -4362,22 +4400,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -4387,23 +4425,23 @@
       <c r="C40" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D40" s="7">
-        <v>1063448614</v>
+      <c r="D40" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -4413,23 +4451,23 @@
       <c r="C41" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>74</v>
+      <c r="D41" s="7">
+        <v>1063448614</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -4439,23 +4477,23 @@
       <c r="C42" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D42" s="7">
-        <v>1026079544</v>
+      <c r="D42" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -4465,23 +4503,23 @@
       <c r="C43" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>116</v>
+      <c r="D43" s="7">
+        <v>1026079544</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -4492,22 +4530,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -4517,14 +4555,14 @@
       <c r="C45" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D45" s="7">
-        <v>1121762092</v>
+      <c r="D45" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>8</v>
@@ -4533,7 +4571,7 @@
         <v>119</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -4544,22 +4582,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D46" s="7">
-        <v>1140853380</v>
+        <v>1121762092</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -4569,23 +4607,23 @@
       <c r="C47" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D47" s="6">
-        <v>1553395477</v>
+      <c r="D47" s="7">
+        <v>1140853380</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>195</v>
+        <v>146</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>136</v>
+        <v>82</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -4595,23 +4633,23 @@
       <c r="C48" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D48" s="7">
-        <v>1080456188</v>
+      <c r="D48" s="6">
+        <v>1553395477</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>196</v>
+        <v>146</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>69</v>
+        <v>137</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -4622,22 +4660,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D49" s="7">
-        <v>1555371580</v>
+        <v>1080456188</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -4648,22 +4686,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D50" s="7">
-        <v>1123157857</v>
+        <v>1555371580</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>52</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -4674,22 +4712,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D51" s="7">
-        <v>1557734323</v>
+        <v>1123157857</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>52</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -4699,14 +4737,14 @@
       <c r="C52" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D52" s="6">
-        <v>1274580847</v>
+      <c r="D52" s="7">
+        <v>1557734323</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>201</v>
+        <v>146</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>52</v>
@@ -4714,8 +4752,8 @@
       <c r="H52" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I52" s="13" t="s">
-        <v>103</v>
+      <c r="I52" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -4725,14 +4763,14 @@
       <c r="C53" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>113</v>
+      <c r="D53" s="6">
+        <v>1274580847</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>202</v>
+        <v>146</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>52</v>
@@ -4740,8 +4778,8 @@
       <c r="H53" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I53" s="14" t="s">
-        <v>112</v>
+      <c r="I53" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -4751,23 +4789,23 @@
       <c r="C54" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D54" s="7">
-        <v>1097080067</v>
+      <c r="D54" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>52</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -4778,22 +4816,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D55" s="7">
-        <v>1275574497</v>
+        <v>1097080067</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>52</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -4804,22 +4842,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D56" s="7">
-        <v>1040196093</v>
+        <v>1275574497</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -4829,23 +4867,23 @@
       <c r="C57" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D57" s="6">
-        <v>1157757436</v>
+      <c r="D57" s="7">
+        <v>1040196093</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>207</v>
+        <v>146</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I57" s="13" t="s">
-        <v>105</v>
+      <c r="I57" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="58" ht="13.75" spans="2:9">
@@ -4856,22 +4894,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D58" s="10">
-        <v>1283114456</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>145</v>
+        <v>1157757436</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G58" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G58" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>27</v>
+      <c r="H58" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" ht="13.75" spans="2:9">
@@ -4881,28 +4919,54 @@
       <c r="C59" s="9">
         <v>0.791666666666667</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="11">
+        <v>1283114456</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" ht="13.75" spans="2:9">
+      <c r="B60" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C60" s="9">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D60" s="11">
         <v>1159286476</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="H59" s="11" t="s">
+      <c r="E60" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H60" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I59" s="15" t="s">
+      <c r="I60" s="16" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I59" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B3:I59">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I60" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="B3:I60">
       <sortCondition ref="G2"/>
     </sortState>
     <extLst/>
